--- a/src/main/python/science/samples/2_2.xlsx
+++ b/src/main/python/science/samples/2_2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
   <si>
     <t xml:space="preserve">  0.69</t>
   </si>
@@ -115,6 +115,156 @@
   </si>
   <si>
     <t xml:space="preserve">  0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.87</t>
   </si>
 </sst>
 </file>
@@ -150,8 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -432,297 +583,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/python/science/samples/2_2.xlsx
+++ b/src/main/python/science/samples/2_2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF017D2C-BFD0-5B47-A376-D0181A98E368}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2180" yWindow="1280" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
   <si>
     <t xml:space="preserve">  0.69</t>
   </si>
@@ -261,16 +262,28 @@
     <t xml:space="preserve">   1.47</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.87</t>
+    <t xml:space="preserve"> 2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,16 +595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -633,7 +646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -647,7 +660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -661,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -675,7 +688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -689,7 +702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -703,7 +716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -717,7 +730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -731,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -745,7 +758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -759,7 +772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -773,7 +786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -787,7 +800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -801,7 +814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -815,7 +828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -829,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -843,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -857,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -871,7 +884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -885,7 +898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -899,7 +912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -913,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -927,7 +940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -941,7 +954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -955,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -969,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -983,7 +996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1137,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1332,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1361,7 +1374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -1389,46 +1402,46 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" t="s">
-        <v>80</v>
-      </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/python/science/samples/2_2.xlsx
+++ b/src/main/python/science/samples/2_2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF017D2C-BFD0-5B47-A376-D0181A98E368}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanpodkidysev/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{109C64F9-21CC-7C4B-850D-1DAF524BB2E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1280" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{6B96A6DD-C229-3E43-908F-334E76A7B322}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="83">
   <si>
     <t xml:space="preserve">  0.69</t>
   </si>
@@ -187,6 +192,15 @@
     <t xml:space="preserve">  2.22</t>
   </si>
   <si>
+    <t xml:space="preserve">  2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.82</t>
   </si>
   <si>
@@ -211,9 +225,15 @@
     <t xml:space="preserve">  1.00</t>
   </si>
   <si>
+    <t xml:space="preserve">  0.89</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.42</t>
   </si>
   <si>
+    <t xml:space="preserve">  1.29</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.86</t>
   </si>
   <si>
@@ -232,6 +252,9 @@
     <t xml:space="preserve">  0.84</t>
   </si>
   <si>
+    <t xml:space="preserve">  1.14</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.78</t>
   </si>
   <si>
@@ -241,43 +264,16 @@
     <t xml:space="preserve">  0.98</t>
   </si>
   <si>
+    <t xml:space="preserve">  1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.38</t>
+  </si>
+  <si>
     <t xml:space="preserve">  0.95</t>
   </si>
   <si>
-    <t xml:space="preserve">   1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.84</t>
+    <t xml:space="preserve">  1.47</t>
   </si>
 </sst>
 </file>
@@ -286,10 +282,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,9 +310,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -350,7 +346,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -362,7 +358,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -409,6 +405,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -444,6 +457,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -595,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF05D4-31E0-8C40-B5D8-055B88655052}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -626,10 +656,10 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,7 +684,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -685,7 +715,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -696,7 +726,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -710,7 +740,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
@@ -780,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -797,7 +827,7 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -808,10 +838,10 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -881,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -895,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -909,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,7 +950,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -937,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -962,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -993,7 +1023,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,7 +1034,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1018,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1035,7 +1065,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,7 +1163,7 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1245,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,7 +1317,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1298,10 +1328,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1312,10 +1342,10 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1329,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1371,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1404,44 +1434,44 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
